--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343804.640045674</v>
+        <v>-1345664.647973876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.59841026</v>
+        <v>5362323.598410265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E11" t="n">
         <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586171</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H11" t="n">
-        <v>24.97768184828863</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913299</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201115</v>
+        <v>68.83384483201121</v>
       </c>
       <c r="T11" t="n">
         <v>133.6155215347106</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.3286964870407</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343187</v>
+        <v>136.7159375173448</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677302</v>
+        <v>111.3078169498591</v>
       </c>
       <c r="C12" t="n">
-        <v>95.28493700522142</v>
+        <v>95.28493700522151</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02150358154444</v>
+        <v>70.02150358154452</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230663</v>
+        <v>80.22151847230671</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>67.64565041028965</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8698590135443</v>
+        <v>58.4462970304501</v>
       </c>
       <c r="H12" t="n">
-        <v>81.54236293709405</v>
+        <v>20.57944696583563</v>
       </c>
       <c r="I12" t="n">
-        <v>38.65884129492198</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198578</v>
+        <v>66.88705533198586</v>
       </c>
       <c r="T12" t="n">
-        <v>116.8012902225022</v>
+        <v>116.8012902225023</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038235</v>
+        <v>148.4208689038236</v>
       </c>
       <c r="V12" t="n">
-        <v>155.377025166331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>128.3494232203832</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.25913379421</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.408418198843</v>
+        <v>102.4084181988431</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553352</v>
+        <v>89.8232591155336</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511804</v>
+        <v>71.19191103511812</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347485</v>
+        <v>8.071023509455456</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983693</v>
+        <v>67.99748603983701</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606987</v>
+        <v>89.33195188606996</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407163</v>
+        <v>73.81919917407171</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974152</v>
+        <v>40.87309622974158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361163</v>
+        <v>44.3188083936117</v>
       </c>
       <c r="S13" t="n">
-        <v>125.0622420268079</v>
+        <v>125.062242026808</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2432203545649</v>
+        <v>145.243220354565</v>
       </c>
       <c r="U13" t="n">
-        <v>208.8280783467078</v>
+        <v>208.8280783467079</v>
       </c>
       <c r="V13" t="n">
-        <v>174.7140813407337</v>
+        <v>174.7140813407338</v>
       </c>
       <c r="W13" t="n">
-        <v>148.1600591994764</v>
+        <v>209.0994363534968</v>
       </c>
       <c r="X13" t="n">
-        <v>148.2860934059428</v>
+        <v>148.2860934059429</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.1610913690005</v>
+        <v>141.1610913690006</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
-        <v>70.59019792014567</v>
+        <v>92.23695588316357</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2594796375886</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586171</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G14" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.844191526861</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913299</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201115</v>
+        <v>68.83384483201118</v>
       </c>
       <c r="T14" t="n">
         <v>133.6155215347106</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545637</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343187</v>
+        <v>271.8174067343188</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1704,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1740,7 +1740,7 @@
         <v>194.2248522055965</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8444308869181</v>
+        <v>225.8444308869178</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,25 +1765,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553352</v>
+        <v>89.82325911553357</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511804</v>
+        <v>71.1919110351181</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347485</v>
+        <v>69.01040066347491</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983693</v>
+        <v>67.99748603983699</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606987</v>
+        <v>89.33195188606993</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407163</v>
+        <v>73.81919917407168</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974152</v>
+        <v>40.87309622974156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361163</v>
+        <v>44.31880839361168</v>
       </c>
       <c r="S16" t="n">
         <v>125.0622420268079</v>
       </c>
       <c r="T16" t="n">
-        <v>84.30384320054448</v>
+        <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
         <v>208.8280783467078</v>
       </c>
       <c r="V16" t="n">
-        <v>174.7140813407337</v>
+        <v>113.774704186713</v>
       </c>
       <c r="W16" t="n">
         <v>209.0994363534967</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2860934059428</v>
+        <v>148.2860934059429</v>
       </c>
       <c r="Y16" t="n">
         <v>141.1610913690005</v>
@@ -1938,10 +1938,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H18" t="n">
-        <v>98.00300894892993</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S18" t="n">
         <v>144.3106173150801</v>
@@ -2017,13 +2017,13 @@
         <v>14.48525054822382</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>27.10964239556558</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>52.80906016383836</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T19" t="n">
         <v>70.39651901671884</v>
@@ -2062,7 +2062,7 @@
         <v>99.86738000288764</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X19" t="n">
         <v>73.43939206809679</v>
@@ -2081,10 +2081,10 @@
         <v>230.4635783425402</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0026284500685</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E20" t="n">
         <v>229.6601067513214</v>
@@ -2178,7 +2178,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492205</v>
+        <v>38.65884129492161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.4858040099022</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T22" t="n">
-        <v>70.39651901671884</v>
+        <v>219.4240011381651</v>
       </c>
       <c r="U22" t="n">
         <v>286.2516403298021</v>
       </c>
       <c r="V22" t="n">
-        <v>248.8948621243334</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>134.2527350156506</v>
@@ -2415,7 +2415,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
       </c>
       <c r="T24" t="n">
-        <v>194.2248522055965</v>
+        <v>194.2248522055945</v>
       </c>
       <c r="U24" t="n">
         <v>225.8444308869178</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.77146956484242</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>118.2966582128358</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>133.9813770088617</v>
       </c>
       <c r="V25" t="n">
-        <v>99.86738000288764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2527350156506</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>73.43939206809679</v>
+        <v>100.7245038128373</v>
       </c>
       <c r="Y25" t="n">
         <v>66.31439003115443</v>
@@ -2573,7 +2573,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657016</v>
+        <v>24.31268534657013</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944829</v>
       </c>
       <c r="T26" t="n">
         <v>131.0594253821477</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2731,7 +2731,7 @@
         <v>71.2631030215088</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717866</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S28" t="n">
         <v>122.506145874245</v>
@@ -2810,7 +2810,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657016</v>
+        <v>24.31268534657012</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944828</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2849,7 +2849,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7726003344778</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W29" t="n">
         <v>269.2613105817559</v>
@@ -2858,7 +2858,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2582805203965</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628046</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297069</v>
+        <v>87.26716296297067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255521</v>
+        <v>68.6358148825552</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091201</v>
       </c>
       <c r="F31" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727408</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350703</v>
       </c>
       <c r="H31" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150878</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104877</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
       </c>
       <c r="T31" t="n">
-        <v>142.6871242020021</v>
+        <v>142.687124202002</v>
       </c>
       <c r="U31" t="n">
         <v>206.271982194145</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1579851881709</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W31" t="n">
-        <v>206.5433402009339</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X31" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6049952164377</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H32" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657013</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944829</v>
       </c>
       <c r="T32" t="n">
         <v>131.0594253821477</v>
@@ -3086,16 +3086,16 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W32" t="n">
         <v>269.2613105817559</v>
       </c>
       <c r="X32" t="n">
-        <v>289.7514425428118</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628014</v>
+        <v>99.85232204628015</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297067</v>
+        <v>87.26716296297069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.6358148825552</v>
+        <v>68.63581488255521</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091201</v>
+        <v>66.45430451091202</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727408</v>
+        <v>65.4413898872741</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350703</v>
+        <v>86.77585573350704</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150878</v>
+        <v>71.2631030215088</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717868</v>
+        <v>38.31700007717866</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>206.271982194145</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287817</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U35" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V35" t="n">
         <v>223.4599149879076</v>
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598505</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E37" t="n">
-        <v>42.14161916434186</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I37" t="n">
-        <v>14.00431473060852</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S37" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
@@ -3487,7 +3487,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X37" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y37" t="n">
         <v>114.2923098698675</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287813</v>
       </c>
       <c r="T38" t="n">
         <v>106.7467400355776</v>
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3679,7 +3679,7 @@
         <v>46.95041767493863</v>
       </c>
       <c r="I40" t="n">
-        <v>14.00431473060852</v>
+        <v>14.00431473060851</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447862</v>
       </c>
       <c r="S40" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767486</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
@@ -3740,7 +3740,7 @@
         <v>278.4414981812532</v>
       </c>
       <c r="C41" t="n">
-        <v>260.9805482887803</v>
+        <v>260.9805482887802</v>
       </c>
       <c r="D41" t="n">
         <v>250.3906981384556</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287808</v>
       </c>
       <c r="T41" t="n">
         <v>106.7467400355775</v>
@@ -3806,7 +3806,7 @@
         <v>265.4387571962417</v>
       </c>
       <c r="Y41" t="n">
-        <v>281.9455951738263</v>
+        <v>281.9455951738262</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669970997</v>
+        <v>75.53963669970993</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640051</v>
+        <v>62.95447761640047</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598499</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434185</v>
+        <v>42.1416191643418</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070388</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693681</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493857</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060845</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447856</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767486</v>
+        <v>98.1934605276748</v>
       </c>
       <c r="T43" t="n">
-        <v>118.3744388554319</v>
+        <v>118.3744388554318</v>
       </c>
       <c r="U43" t="n">
-        <v>181.9592968475748</v>
+        <v>181.9592968475747</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416007</v>
+        <v>147.8452998416006</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543637</v>
+        <v>182.2306548543636</v>
       </c>
       <c r="X43" t="n">
         <v>121.4173119068098</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.2923098698675</v>
+        <v>114.2923098698674</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>278.4414981812532</v>
+        <v>278.4414981812533</v>
       </c>
       <c r="C44" t="n">
         <v>260.9805482887803</v>
       </c>
       <c r="D44" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384557</v>
       </c>
       <c r="E44" t="n">
-        <v>277.6380265900344</v>
+        <v>277.6380265900345</v>
       </c>
       <c r="F44" t="n">
         <v>302.5837022594841</v>
       </c>
       <c r="G44" t="n">
-        <v>308.2561356556772</v>
+        <v>308.2561356556773</v>
       </c>
       <c r="H44" t="n">
         <v>206.9754100277281</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287817</v>
       </c>
       <c r="T44" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U44" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V44" t="n">
         <v>223.4599149879076</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669970997</v>
+        <v>75.53963669971</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640051</v>
+        <v>62.95447761640054</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598506</v>
       </c>
       <c r="E46" t="n">
-        <v>42.14161916434185</v>
+        <v>42.14161916434188</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070395</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693688</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493865</v>
       </c>
       <c r="I46" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S46" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T46" t="n">
         <v>118.3744388554319</v>
@@ -4198,7 +4198,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X46" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y46" t="n">
         <v>114.2923098698675</v>
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1019.363606698668</v>
+        <v>1198.232608138374</v>
       </c>
       <c r="C11" t="n">
-        <v>728.6067079229981</v>
+        <v>1198.232608138374</v>
       </c>
       <c r="D11" t="n">
-        <v>728.6067079229981</v>
+        <v>918.1725276963647</v>
       </c>
       <c r="E11" t="n">
-        <v>421.0240734894957</v>
+        <v>610.5898932628621</v>
       </c>
       <c r="F11" t="n">
-        <v>88.24378686462987</v>
+        <v>610.5898932628621</v>
       </c>
       <c r="G11" t="n">
-        <v>88.24378686462987</v>
+        <v>272.0798759347708</v>
       </c>
       <c r="H11" t="n">
-        <v>63.01380519969186</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="I11" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J11" t="n">
-        <v>255.4704199811898</v>
+        <v>88.06477096083685</v>
       </c>
       <c r="K11" t="n">
-        <v>384.429941558766</v>
+        <v>405.1406536087403</v>
       </c>
       <c r="L11" t="n">
-        <v>581.3173933146317</v>
+        <v>602.0281053646061</v>
       </c>
       <c r="M11" t="n">
-        <v>832.0620569876967</v>
+        <v>852.7727690376712</v>
       </c>
       <c r="N11" t="n">
-        <v>1091.4778398433</v>
+        <v>1112.188551893275</v>
       </c>
       <c r="O11" t="n">
-        <v>1535.413910450324</v>
+        <v>1556.124622500299</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196611</v>
+        <v>1719.309096196612</v>
       </c>
       <c r="Q11" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R11" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1724.151957167763</v>
+        <v>1724.151957167764</v>
       </c>
       <c r="T11" t="n">
         <v>1589.186783900379</v>
@@ -5075,16 +5075,16 @@
         <v>1589.186783900379</v>
       </c>
       <c r="V11" t="n">
-        <v>1589.186783900379</v>
+        <v>1336.32951472155</v>
       </c>
       <c r="W11" t="n">
-        <v>1314.623746795006</v>
+        <v>1198.232608138374</v>
       </c>
       <c r="X11" t="n">
-        <v>1019.363606698668</v>
+        <v>1198.232608138374</v>
       </c>
       <c r="Y11" t="n">
-        <v>1019.363606698668</v>
+        <v>1198.232608138374</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.073858935938</v>
+        <v>432.0345849638486</v>
       </c>
       <c r="C12" t="n">
-        <v>592.8264478195528</v>
+        <v>335.7871738474632</v>
       </c>
       <c r="D12" t="n">
-        <v>522.0976563230432</v>
+        <v>265.0583823509536</v>
       </c>
       <c r="E12" t="n">
-        <v>441.0658194823295</v>
+        <v>184.0265455102397</v>
       </c>
       <c r="F12" t="n">
-        <v>294.5312615092145</v>
+        <v>115.6976057018664</v>
       </c>
       <c r="G12" t="n">
-        <v>157.2889796773515</v>
+        <v>56.66094203474503</v>
       </c>
       <c r="H12" t="n">
-        <v>74.92295650856963</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="I12" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J12" t="n">
-        <v>48.14046576522581</v>
+        <v>172.9705907522306</v>
       </c>
       <c r="K12" t="n">
-        <v>147.2612805459674</v>
+        <v>533.9119901754251</v>
       </c>
       <c r="L12" t="n">
-        <v>326.8639894421275</v>
+        <v>915.7757032084685</v>
       </c>
       <c r="M12" t="n">
-        <v>555.808747583714</v>
+        <v>1144.720461350055</v>
       </c>
       <c r="N12" t="n">
-        <v>805.2216371426662</v>
+        <v>1394.133350909007</v>
       </c>
       <c r="O12" t="n">
-        <v>1094.120405820268</v>
+        <v>1600.077622893648</v>
       </c>
       <c r="P12" t="n">
-        <v>1538.056476427293</v>
+        <v>1746.032991285784</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R12" t="n">
         <v>1784.931840215664</v>
@@ -5151,19 +5151,19 @@
         <v>1599.388056827292</v>
       </c>
       <c r="U12" t="n">
-        <v>1449.46798722747</v>
+        <v>1449.467987227471</v>
       </c>
       <c r="V12" t="n">
-        <v>1292.521497160469</v>
+        <v>1214.315878995728</v>
       </c>
       <c r="W12" t="n">
-        <v>1038.284140432268</v>
+        <v>960.0785222675263</v>
       </c>
       <c r="X12" t="n">
-        <v>908.6382583914765</v>
+        <v>752.2270220619935</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.0835777912644</v>
+        <v>544.4667232970396</v>
       </c>
     </row>
     <row r="13">
@@ -5173,61 +5173,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.9921109014225</v>
+        <v>481.4371844832201</v>
       </c>
       <c r="C13" t="n">
-        <v>452.2615461382573</v>
+        <v>390.7066197200548</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906633</v>
+        <v>318.7955984724608</v>
       </c>
       <c r="E13" t="n">
-        <v>310.643049473012</v>
+        <v>310.6430494730124</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398433</v>
+        <v>241.9587201398436</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054293</v>
+        <v>151.7244253054295</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485197</v>
+        <v>77.15957765485206</v>
       </c>
       <c r="I13" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J13" t="n">
         <v>106.5712959071871</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414891</v>
+        <v>303.2770659414894</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197774</v>
+        <v>589.0837408197776</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624208</v>
+        <v>896.6492882624214</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
       </c>
       <c r="O13" t="n">
-        <v>1478.028540358913</v>
+        <v>1478.028540358914</v>
       </c>
       <c r="P13" t="n">
         <v>1699.913336220597</v>
       </c>
       <c r="Q13" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
         <v>1748.914620236854</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.589123240078</v>
+        <v>1622.589123240079</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.878799649608</v>
+        <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
         <v>1264.941346774146</v>
@@ -5236,13 +5236,13 @@
         <v>1088.462476733001</v>
       </c>
       <c r="W13" t="n">
-        <v>938.8058512789844</v>
+        <v>877.2509248607823</v>
       </c>
       <c r="X13" t="n">
-        <v>789.0219185457088</v>
+        <v>727.4669921275066</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.4349575669205</v>
+        <v>584.8800311487182</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1645.755963355024</v>
+        <v>785.7048402687852</v>
       </c>
       <c r="C14" t="n">
-        <v>1574.452733132654</v>
+        <v>692.5361979625596</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.392652690645</v>
+        <v>692.5361979625596</v>
       </c>
       <c r="E14" t="n">
-        <v>986.8100182571422</v>
+        <v>384.9535635290571</v>
       </c>
       <c r="F14" t="n">
-        <v>654.0297316322764</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="G14" t="n">
-        <v>315.5197143041852</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664875</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J14" t="n">
-        <v>271.7700750181467</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K14" t="n">
-        <v>721.633555041176</v>
+        <v>526.6710284328591</v>
       </c>
       <c r="L14" t="n">
-        <v>918.5210067970417</v>
+        <v>723.5584801887248</v>
       </c>
       <c r="M14" t="n">
-        <v>1169.265670470107</v>
+        <v>974.30314386179</v>
       </c>
       <c r="N14" t="n">
-        <v>1587.799471968432</v>
+        <v>1233.718926717393</v>
       </c>
       <c r="O14" t="n">
-        <v>1819.423178305991</v>
+        <v>1842.33481250507</v>
       </c>
       <c r="P14" t="n">
-        <v>2301.188373092071</v>
+        <v>2324.10000729115</v>
       </c>
       <c r="Q14" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R14" t="n">
         <v>2608.663845209559</v>
@@ -5306,22 +5306,22 @@
         <v>2539.134709015608</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748224</v>
+        <v>2404.169535748223</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.713222359776</v>
+        <v>2228.713222359775</v>
       </c>
       <c r="V14" t="n">
-        <v>2228.713222359776</v>
+        <v>1975.855953180946</v>
       </c>
       <c r="W14" t="n">
-        <v>1954.150185254404</v>
+        <v>1701.292916075573</v>
       </c>
       <c r="X14" t="n">
-        <v>1954.150185254404</v>
+        <v>1406.032775979235</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.150185254404</v>
+        <v>1094.099062168165</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305902</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494632</v>
       </c>
       <c r="D15" t="n">
         <v>633.2298446882123</v>
@@ -5343,37 +5343,37 @@
         <v>473.9923896827569</v>
       </c>
       <c r="F15" t="n">
-        <v>327.4578317096419</v>
+        <v>327.4578317096418</v>
       </c>
       <c r="G15" t="n">
         <v>190.2155498777789</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552652</v>
+        <v>91.22261154552649</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J15" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L15" t="n">
         <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1569.779517113938</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N15" t="n">
-        <v>1819.19240667289</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O15" t="n">
-        <v>2415.060374741493</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q15" t="n">
         <v>2608.663845209559</v>
@@ -5400,7 +5400,7 @@
         <v>1332.592919415612</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.2917659383796</v>
+        <v>559.2917659383797</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752144</v>
+        <v>468.5612011752145</v>
       </c>
       <c r="D16" t="n">
         <v>396.6501799276205</v>
@@ -5422,31 +5422,31 @@
         <v>326.9427045099691</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768005</v>
+        <v>258.2583751768004</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423865</v>
+        <v>168.0240803423864</v>
       </c>
       <c r="H16" t="n">
         <v>93.45923269180889</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J16" t="n">
         <v>122.870950944144</v>
       </c>
       <c r="K16" t="n">
-        <v>319.5767209784459</v>
+        <v>319.5767209784458</v>
       </c>
       <c r="L16" t="n">
         <v>605.3833958567342</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.9489432993777</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549739</v>
+        <v>1220.458435549738</v>
       </c>
       <c r="O16" t="n">
         <v>1494.32819539587</v>
@@ -5464,22 +5464,22 @@
         <v>1638.888778277035</v>
       </c>
       <c r="T16" t="n">
-        <v>1553.733381104768</v>
+        <v>1492.178454686565</v>
       </c>
       <c r="U16" t="n">
-        <v>1342.795928229306</v>
+        <v>1281.241001811103</v>
       </c>
       <c r="V16" t="n">
-        <v>1166.31705818816</v>
+        <v>1166.317058188161</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1055063159416</v>
+        <v>955.105506315942</v>
       </c>
       <c r="X16" t="n">
-        <v>805.321573582666</v>
+        <v>805.3215735826661</v>
       </c>
       <c r="Y16" t="n">
-        <v>662.7346126038776</v>
+        <v>662.7346126038777</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618398</v>
+        <v>964.8415548618402</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524241</v>
+        <v>732.8616490524246</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516453</v>
+        <v>475.6840910516457</v>
       </c>
       <c r="G17" t="n">
         <v>212.7768023476407</v>
@@ -5513,22 +5513,22 @@
         <v>52.17327690419118</v>
       </c>
       <c r="J17" t="n">
-        <v>271.7700750181467</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>418.2041379236025</v>
+        <v>400.7295965957231</v>
       </c>
       <c r="L17" t="n">
-        <v>615.0915896794681</v>
+        <v>682.7393874234626</v>
       </c>
       <c r="M17" t="n">
-        <v>1260.735891368834</v>
+        <v>1328.383689112829</v>
       </c>
       <c r="N17" t="n">
-        <v>1906.3801930582</v>
+        <v>1587.799471968432</v>
       </c>
       <c r="O17" t="n">
-        <v>2138.003899395758</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P17" t="n">
         <v>2301.188373092071</v>
@@ -5543,7 +5543,7 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T17" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U17" t="n">
         <v>2449.4478158019</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.6172836305907</v>
+        <v>956.6172836305905</v>
       </c>
       <c r="C18" t="n">
-        <v>782.1642543494637</v>
+        <v>782.1642543494635</v>
       </c>
       <c r="D18" t="n">
-        <v>633.2298446882124</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E18" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827568</v>
       </c>
       <c r="F18" t="n">
-        <v>327.4578317096419</v>
+        <v>327.4578317096418</v>
       </c>
       <c r="G18" t="n">
-        <v>190.215549877779</v>
+        <v>190.2155498777793</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552652</v>
+        <v>91.22261154552649</v>
       </c>
       <c r="I18" t="n">
         <v>52.17327690419118</v>
@@ -5595,16 +5595,16 @@
         <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L18" t="n">
-        <v>729.8143541085419</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>958.7591122501284</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N18" t="n">
-        <v>1295.937750860862</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O18" t="n">
         <v>1891.805718929465</v>
@@ -5616,10 +5616,10 @@
         <v>2608.663845209559</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S18" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745246</v>
       </c>
       <c r="T18" t="n">
         <v>2257.959572345653</v>
@@ -5634,7 +5634,7 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X18" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y18" t="n">
         <v>1124.832620650659</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>229.8457728359897</v>
+        <v>263.3017449765064</v>
       </c>
       <c r="C19" t="n">
-        <v>214.7179366969114</v>
+        <v>248.1739088374281</v>
       </c>
       <c r="D19" t="n">
-        <v>214.7179366969114</v>
+        <v>248.1739088374281</v>
       </c>
       <c r="E19" t="n">
-        <v>66.80484311451828</v>
+        <v>100.260815255035</v>
       </c>
       <c r="F19" t="n">
-        <v>66.80484311451828</v>
+        <v>100.260815255035</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419118</v>
+        <v>85.6292490447079</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="J19" t="n">
         <v>52.17327690419118</v>
@@ -5680,13 +5680,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N19" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O19" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P19" t="n">
         <v>1185.619359038021</v>
@@ -5695,28 +5695,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S19" t="n">
-        <v>1149.395304801897</v>
+        <v>1029.042930153585</v>
       </c>
       <c r="T19" t="n">
-        <v>1078.287709835514</v>
+        <v>957.935335187202</v>
       </c>
       <c r="U19" t="n">
-        <v>789.1446387953096</v>
+        <v>668.7922641469978</v>
       </c>
       <c r="V19" t="n">
-        <v>688.2684973782514</v>
+        <v>567.9161227299396</v>
       </c>
       <c r="W19" t="n">
-        <v>398.8513273412908</v>
+        <v>432.3072994818076</v>
       </c>
       <c r="X19" t="n">
-        <v>324.6701232321021</v>
+        <v>358.1260953726189</v>
       </c>
       <c r="Y19" t="n">
-        <v>257.6858908774007</v>
+        <v>291.1418630179174</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831344</v>
       </c>
       <c r="C20" t="n">
         <v>1169.298906679761</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618395</v>
+        <v>964.8415548618393</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524239</v>
+        <v>732.8616490524237</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516449</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J20" t="n">
-        <v>271.7700750181467</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K20" t="n">
-        <v>721.633555041176</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L20" t="n">
-        <v>918.5210067970417</v>
+        <v>1332.005609201988</v>
       </c>
       <c r="M20" t="n">
-        <v>1169.265670470107</v>
+        <v>1582.750272875053</v>
       </c>
       <c r="N20" t="n">
-        <v>1428.68145332571</v>
+        <v>1929.291827257279</v>
       </c>
       <c r="O20" t="n">
-        <v>1842.33481250507</v>
+        <v>2160.915533594838</v>
       </c>
       <c r="P20" t="n">
-        <v>2324.100007291151</v>
+        <v>2324.10000729115</v>
       </c>
       <c r="Q20" t="n">
         <v>2608.663845209559</v>
@@ -5780,22 +5780,22 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.301400566262</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801899</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247157</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X20" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.57555529362</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106637</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305907</v>
+        <v>956.6172836305902</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494637</v>
+        <v>782.1642543494632</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882124</v>
+        <v>633.229844688212</v>
       </c>
       <c r="E21" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827565</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096419</v>
+        <v>327.4578317096415</v>
       </c>
       <c r="G21" t="n">
-        <v>190.215549877779</v>
+        <v>190.2155498777785</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552659</v>
+        <v>91.22261154552614</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L21" t="n">
-        <v>811.2723871138713</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1040.217145255458</v>
+        <v>1436.448557385871</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.861446944824</v>
+        <v>1685.861446944823</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.805718929465</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.039228275138</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q21" t="n">
         <v>2608.663845209559</v>
@@ -5862,7 +5862,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U21" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V21" t="n">
         <v>1794.681776349347</v>
@@ -5871,10 +5871,10 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.93267925359653</v>
+        <v>81.93267925359652</v>
       </c>
       <c r="C22" t="n">
-        <v>66.80484311451828</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80484311451828</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="E22" t="n">
-        <v>66.80484311451828</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="F22" t="n">
-        <v>66.80484311451828</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="G22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="H22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
@@ -5917,13 +5917,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N22" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O22" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P22" t="n">
         <v>1185.619359038021</v>
@@ -5935,13 +5935,13 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S22" t="n">
-        <v>998.2066746543574</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T22" t="n">
-        <v>927.0990796879747</v>
+        <v>930.3746162531207</v>
       </c>
       <c r="U22" t="n">
-        <v>637.9560086477705</v>
+        <v>641.2315452129166</v>
       </c>
       <c r="V22" t="n">
         <v>386.5470570070297</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831343</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.298906679762</v>
+        <v>1169.29890667976</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618406</v>
+        <v>964.8415548618386</v>
       </c>
       <c r="E23" t="n">
-        <v>732.861649052425</v>
+        <v>732.8616490524232</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516462</v>
+        <v>475.6840910516444</v>
       </c>
       <c r="G23" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="J23" t="n">
         <v>271.7700750181467</v>
       </c>
       <c r="K23" t="n">
-        <v>400.7295965957229</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L23" t="n">
-        <v>857.4314040154982</v>
+        <v>918.5210067970419</v>
       </c>
       <c r="M23" t="n">
-        <v>1503.075705704864</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N23" t="n">
-        <v>1762.491488560467</v>
+        <v>1428.68145332571</v>
       </c>
       <c r="O23" t="n">
-        <v>2371.107374348143</v>
+        <v>2037.297339113387</v>
       </c>
       <c r="P23" t="n">
-        <v>2534.291848044456</v>
+        <v>2519.062533899467</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R23" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="S23" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.301400566262</v>
+        <v>2549.30140056626</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.447815801901</v>
+        <v>2449.447815801898</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247156</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765873</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.575555293622</v>
+        <v>1853.575555293619</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106639</v>
+        <v>1617.244570106636</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.6172836305909</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C24" t="n">
-        <v>782.1642543494639</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D24" t="n">
-        <v>633.2298446882128</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827572</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F24" t="n">
-        <v>327.4578317096423</v>
+        <v>327.4578317096418</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777793</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H24" t="n">
-        <v>91.22261154552652</v>
+        <v>91.22261154552645</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="J24" t="n">
         <v>189.2702457891875</v>
@@ -6081,34 +6081,34 @@
         <v>1575.303943659505</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.805718929465</v>
+        <v>1891.805718929462</v>
       </c>
       <c r="P24" t="n">
-        <v>2353.039228275138</v>
+        <v>2353.039228275135</v>
       </c>
       <c r="Q24" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063509</v>
+        <v>2599.914592063506</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745246</v>
+        <v>2454.146291745243</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.959572345654</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.681776349348</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.444419621146</v>
+        <v>1540.444419621145</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.832620650659</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>417.1100917653343</v>
+        <v>81.93267925359648</v>
       </c>
       <c r="C25" t="n">
-        <v>401.9822556262561</v>
+        <v>66.80484311451822</v>
       </c>
       <c r="D25" t="n">
-        <v>401.9822556262561</v>
+        <v>66.80484311451822</v>
       </c>
       <c r="E25" t="n">
-        <v>401.9822556262561</v>
+        <v>66.80484311451822</v>
       </c>
       <c r="F25" t="n">
-        <v>401.9822556262561</v>
+        <v>66.80484311451822</v>
       </c>
       <c r="G25" t="n">
-        <v>324.4353166718698</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="H25" t="n">
-        <v>171.6648508565506</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419113</v>
       </c>
       <c r="K25" t="n">
         <v>172.2297205752297</v>
@@ -6154,13 +6154,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N25" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O25" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P25" t="n">
         <v>1185.619359038021</v>
@@ -6172,25 +6172,25 @@
         <v>1079.765698526273</v>
       </c>
       <c r="S25" t="n">
-        <v>1029.042930153584</v>
+        <v>1029.042930153585</v>
       </c>
       <c r="T25" t="n">
-        <v>957.9353351872013</v>
+        <v>957.935335187202</v>
       </c>
       <c r="U25" t="n">
-        <v>822.6006109358258</v>
+        <v>822.6006109358265</v>
       </c>
       <c r="V25" t="n">
-        <v>721.7244695187676</v>
+        <v>567.9161227299396</v>
       </c>
       <c r="W25" t="n">
-        <v>586.1156462706356</v>
+        <v>278.498952692979</v>
       </c>
       <c r="X25" t="n">
-        <v>511.9344421614469</v>
+        <v>176.757029649709</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9502098067454</v>
+        <v>109.7727972950075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1868.376552566035</v>
+        <v>1868.376552566036</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.201569095984</v>
+        <v>1580.201569095985</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.723403959595</v>
+        <v>1302.723403959596</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317111</v>
+        <v>997.7226848317119</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124643</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899926</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807562</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123711</v>
       </c>
       <c r="J26" t="n">
         <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>421.9699243927689</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L26" t="n">
-        <v>1032.34197855358</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M26" t="n">
-        <v>1728.10504038455</v>
+        <v>1603.990600672099</v>
       </c>
       <c r="N26" t="n">
-        <v>2420.494278408017</v>
+        <v>2272.82368237061</v>
       </c>
       <c r="O26" t="n">
-        <v>3029.110164195693</v>
+        <v>2881.439568158286</v>
       </c>
       <c r="P26" t="n">
-        <v>3386.116397143448</v>
+        <v>3363.204762944367</v>
       </c>
       <c r="Q26" t="n">
-        <v>3670.680235061856</v>
+        <v>3647.768600862776</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061855</v>
       </c>
       <c r="S26" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173524</v>
       </c>
       <c r="T26" t="n">
-        <v>3471.349756211759</v>
+        <v>3471.34975621176</v>
       </c>
       <c r="U26" t="n">
-        <v>3298.47535812893</v>
+        <v>3298.475358128931</v>
       </c>
       <c r="V26" t="n">
-        <v>3048.20000425572</v>
+        <v>3048.200004255721</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.218882455966</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X26" t="n">
-        <v>2483.540657665247</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.188859159796</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C27" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D27" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E27" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F27" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G27" t="n">
-        <v>211.4558776748249</v>
+        <v>211.4558776748248</v>
       </c>
       <c r="H27" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123711</v>
       </c>
       <c r="J27" t="n">
-        <v>85.68044859922865</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K27" t="n">
-        <v>184.8012633799702</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L27" t="n">
-        <v>585.7489327033597</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>1275.741703957446</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N27" t="n">
-        <v>1525.154593516398</v>
+        <v>1596.544271456551</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.022561585001</v>
+        <v>1913.04604672651</v>
       </c>
       <c r="P27" t="n">
-        <v>2582.256070930674</v>
+        <v>2374.279556072183</v>
       </c>
       <c r="Q27" t="n">
         <v>2629.904173006605</v>
@@ -6330,7 +6330,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S27" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T27" t="n">
         <v>2279.199900142699</v>
@@ -6345,10 +6345,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X27" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960919</v>
+        <v>562.4586865960918</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385457</v>
+        <v>474.3100371385456</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965708</v>
+        <v>404.9809311965707</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845384</v>
+        <v>337.8553710845383</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569888</v>
+        <v>271.7529570569887</v>
       </c>
       <c r="G28" t="n">
         <v>184.1005775281938</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832354</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123711</v>
       </c>
       <c r="J28" t="n">
         <v>146.6418139322272</v>
@@ -6388,10 +6388,10 @@
         <v>345.8781191575662</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268918</v>
+        <v>634.2153292268919</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605723</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N28" t="n">
         <v>1254.35143930197</v>
@@ -6427,7 +6427,7 @@
         <v>803.3246636291403</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559708</v>
+        <v>663.3196179559707</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317121</v>
+        <v>997.7226848317115</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124653</v>
+        <v>667.5243135124647</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5962114899931</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807564</v>
       </c>
       <c r="I29" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>125.6047537948396</v>
+        <v>165.928203621181</v>
       </c>
       <c r="K29" t="n">
-        <v>575.4682338178688</v>
+        <v>615.7916836442104</v>
       </c>
       <c r="L29" t="n">
-        <v>1185.84028797868</v>
+        <v>1226.163737805022</v>
       </c>
       <c r="M29" t="n">
-        <v>1881.603349809649</v>
+        <v>1921.926799635991</v>
       </c>
       <c r="N29" t="n">
-        <v>2573.992587833117</v>
+        <v>2614.316037659459</v>
       </c>
       <c r="O29" t="n">
-        <v>3182.608473620793</v>
+        <v>3222.931923447135</v>
       </c>
       <c r="P29" t="n">
-        <v>3596.308237896754</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S29" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T29" t="n">
-        <v>3471.34975621176</v>
+        <v>3471.349756211759</v>
       </c>
       <c r="U29" t="n">
-        <v>3298.475358128931</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W29" t="n">
         <v>2776.218882455967</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C30" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D30" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E30" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F30" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G30" t="n">
-        <v>211.4558776748249</v>
+        <v>211.4558776748248</v>
       </c>
       <c r="H30" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I30" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J30" t="n">
-        <v>210.5105735862334</v>
+        <v>85.68044859922871</v>
       </c>
       <c r="K30" t="n">
-        <v>571.4519730094278</v>
+        <v>446.6218480224232</v>
       </c>
       <c r="L30" t="n">
-        <v>1118.186623756013</v>
+        <v>993.3564987690079</v>
       </c>
       <c r="M30" t="n">
-        <v>1457.688885182918</v>
+        <v>1222.301256910594</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.10177474187</v>
+        <v>1471.714146469547</v>
       </c>
       <c r="O30" t="n">
-        <v>1913.046046726511</v>
+        <v>2067.58211453815</v>
       </c>
       <c r="P30" t="n">
-        <v>2374.279556072184</v>
+        <v>2528.815623883823</v>
       </c>
       <c r="Q30" t="n">
         <v>2629.904173006605</v>
@@ -6567,7 +6567,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S30" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T30" t="n">
         <v>2279.199900142699</v>
@@ -6582,10 +6582,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X30" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960919</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385457</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965707</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845383</v>
+        <v>337.8553710845387</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569888</v>
+        <v>271.7529570569891</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281938</v>
+        <v>184.1005775281941</v>
       </c>
       <c r="H31" t="n">
         <v>112.1176451832358</v>
@@ -6619,52 +6619,52 @@
         <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322269</v>
+        <v>146.6418139322272</v>
       </c>
       <c r="K31" t="n">
-        <v>345.878119157566</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268915</v>
+        <v>634.215329226892</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605721</v>
+        <v>944.3114118605727</v>
       </c>
       <c r="N31" t="n">
-        <v>1254.35143930197</v>
+        <v>1254.351439301971</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.751734339139</v>
+        <v>1530.75173433914</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.16706539186</v>
+        <v>1755.167065391861</v>
       </c>
       <c r="Q31" t="n">
-        <v>1851.465357724014</v>
+        <v>1851.465357724015</v>
       </c>
       <c r="R31" t="n">
-        <v>1809.280799904773</v>
+        <v>1809.280799904774</v>
       </c>
       <c r="S31" t="n">
-        <v>1685.537218213616</v>
+        <v>1685.537218213618</v>
       </c>
       <c r="T31" t="n">
-        <v>1541.408809928766</v>
+        <v>1541.408809928767</v>
       </c>
       <c r="U31" t="n">
         <v>1333.053272358923</v>
       </c>
       <c r="V31" t="n">
-        <v>1159.156317623396</v>
+        <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567966</v>
+        <v>950.5266810567973</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291401</v>
+        <v>803.3246636291408</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559708</v>
+        <v>663.3196179559714</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1868.376552566036</v>
+        <v>1868.376552566035</v>
       </c>
       <c r="C32" t="n">
-        <v>1580.201569095985</v>
+        <v>1580.201569095984</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317121</v>
+        <v>997.7226848317114</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124653</v>
+        <v>667.5243135124647</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899931</v>
+        <v>331.5962114899926</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807565</v>
       </c>
       <c r="I32" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J32" t="n">
-        <v>125.6047537948396</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>484.4911691086697</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L32" t="n">
-        <v>1094.863223269481</v>
+        <v>1352.601414873159</v>
       </c>
       <c r="M32" t="n">
-        <v>1790.62628510045</v>
+        <v>1603.346078546224</v>
       </c>
       <c r="N32" t="n">
-        <v>2483.015523123918</v>
+        <v>2295.735316569691</v>
       </c>
       <c r="O32" t="n">
-        <v>3091.631408911594</v>
+        <v>2904.351202357368</v>
       </c>
       <c r="P32" t="n">
-        <v>3573.396603697674</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S32" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T32" t="n">
-        <v>3471.34975621176</v>
+        <v>3471.349756211759</v>
       </c>
       <c r="U32" t="n">
-        <v>3298.475358128931</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V32" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W32" t="n">
-        <v>2776.218882455967</v>
+        <v>2776.218882455966</v>
       </c>
       <c r="X32" t="n">
-        <v>2483.540657665248</v>
+        <v>2483.540657665247</v>
       </c>
       <c r="Y32" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159796</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G33" t="n">
-        <v>211.4558776748249</v>
+        <v>211.4558776748248</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I33" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J33" t="n">
-        <v>85.68044859922865</v>
+        <v>85.68044859922871</v>
       </c>
       <c r="K33" t="n">
-        <v>446.621848022423</v>
+        <v>446.6218480224232</v>
       </c>
       <c r="L33" t="n">
-        <v>993.3564987690078</v>
+        <v>993.3564987690079</v>
       </c>
       <c r="M33" t="n">
         <v>1222.301256910594</v>
       </c>
       <c r="N33" t="n">
-        <v>1471.714146469546</v>
+        <v>1471.714146469547</v>
       </c>
       <c r="O33" t="n">
         <v>2067.58211453815</v>
@@ -6804,7 +6804,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S33" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T33" t="n">
         <v>2279.199900142699</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960922</v>
+        <v>562.4586865960919</v>
       </c>
       <c r="C34" t="n">
-        <v>474.310037138546</v>
+        <v>474.3100371385457</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965711</v>
+        <v>404.9809311965708</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845384</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569892</v>
+        <v>271.7529570569889</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281939</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832355</v>
       </c>
       <c r="I34" t="n">
         <v>73.41360470123713</v>
@@ -6862,19 +6862,19 @@
         <v>345.8781191575663</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2153292268918</v>
+        <v>634.2153292268922</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605727</v>
+        <v>944.3114118605729</v>
       </c>
       <c r="N34" t="n">
-        <v>1254.35143930197</v>
+        <v>1254.351439301971</v>
       </c>
       <c r="O34" t="n">
         <v>1530.75173433914</v>
       </c>
       <c r="P34" t="n">
-        <v>1755.16706539186</v>
+        <v>1755.167065391861</v>
       </c>
       <c r="Q34" t="n">
         <v>1851.465357724015</v>
@@ -6895,13 +6895,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567971</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291404</v>
+        <v>803.3246636291401</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559711</v>
+        <v>663.3196179559708</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C35" t="n">
         <v>1425.334123783881</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.414226674329</v>
+        <v>1172.41422667433</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9717755732845</v>
+        <v>891.9717755732851</v>
       </c>
       <c r="F35" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G35" t="n">
         <v>274.9618382852429</v>
       </c>
       <c r="H35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J35" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641198</v>
       </c>
       <c r="K35" t="n">
-        <v>247.0464382213428</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L35" t="n">
-        <v>857.4184923821543</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M35" t="n">
-        <v>1553.181554213123</v>
+        <v>1979.008397250205</v>
       </c>
       <c r="N35" t="n">
-        <v>2245.570792236591</v>
+        <v>2238.424180105808</v>
       </c>
       <c r="O35" t="n">
-        <v>2854.186678024267</v>
+        <v>2847.040065893485</v>
       </c>
       <c r="P35" t="n">
-        <v>3220.416380343102</v>
+        <v>3010.224539589797</v>
       </c>
       <c r="Q35" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R35" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S35" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U35" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V35" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W35" t="n">
-        <v>2523.118365036508</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X35" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y35" t="n">
         <v>1970.204877794016</v>
@@ -7011,37 +7011,37 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I36" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J36" t="n">
-        <v>202.9927364351604</v>
+        <v>78.1626114481557</v>
       </c>
       <c r="K36" t="n">
-        <v>563.9341358583547</v>
+        <v>439.1040108713502</v>
       </c>
       <c r="L36" t="n">
-        <v>808.8839819896691</v>
+        <v>985.8386616179349</v>
       </c>
       <c r="M36" t="n">
-        <v>1498.876753243756</v>
+        <v>1214.783419759522</v>
       </c>
       <c r="N36" t="n">
-        <v>2222.838593402826</v>
+        <v>1464.196309318474</v>
       </c>
       <c r="O36" t="n">
-        <v>2428.782865387466</v>
+        <v>2060.064277387077</v>
       </c>
       <c r="P36" t="n">
-        <v>2574.738233779602</v>
+        <v>2521.29778673275</v>
       </c>
       <c r="Q36" t="n">
         <v>2622.386335855532</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S36" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T36" t="n">
         <v>2271.682062991626</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.0329732571494</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4425918264418</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D37" t="n">
-        <v>274.6717539113054</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E37" t="n">
-        <v>232.1044618261116</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F37" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G37" t="n">
         <v>127.4662043234441</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532424</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I37" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J37" t="n">
         <v>163.1935352742586</v>
       </c>
       <c r="K37" t="n">
-        <v>386.4993989927021</v>
+        <v>317.2577428554752</v>
       </c>
       <c r="L37" t="n">
-        <v>629.6645114179051</v>
+        <v>526.4150913705002</v>
       </c>
       <c r="M37" t="n">
-        <v>860.5807324972852</v>
+        <v>860.5807324972853</v>
       </c>
       <c r="N37" t="n">
         <v>1091.440898384383</v>
@@ -7111,34 +7111,34 @@
         <v>1288.661331867251</v>
       </c>
       <c r="P37" t="n">
-        <v>1433.896801365671</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q37" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R37" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S37" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T37" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U37" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V37" t="n">
-        <v>881.4975321771</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W37" t="n">
-        <v>697.4261636373386</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X37" t="n">
-        <v>574.7824142365206</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y37" t="n">
-        <v>459.3356365901898</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J38" t="n">
-        <v>118.0869166437666</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K38" t="n">
-        <v>247.0464382213428</v>
+        <v>311.8920732066573</v>
       </c>
       <c r="L38" t="n">
-        <v>857.4184923821543</v>
+        <v>508.7795249625231</v>
       </c>
       <c r="M38" t="n">
-        <v>1553.181554213123</v>
+        <v>1204.542586793492</v>
       </c>
       <c r="N38" t="n">
-        <v>1919.84345901604</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O38" t="n">
-        <v>2528.459344803717</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P38" t="n">
-        <v>3010.224539589797</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q38" t="n">
-        <v>3294.788377508205</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R38" t="n">
         <v>3294.788377508205</v>
@@ -7208,10 +7208,10 @@
         <v>2996.258304655795</v>
       </c>
       <c r="V38" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W38" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X38" t="n">
         <v>2254.998408272628</v>
@@ -7239,10 +7239,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
@@ -7251,34 +7251,34 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16261144815563</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K39" t="n">
-        <v>177.2834262288972</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L39" t="n">
-        <v>356.8861351250573</v>
+        <v>808.8839819896676</v>
       </c>
       <c r="M39" t="n">
-        <v>1046.878906379144</v>
+        <v>1498.876753243754</v>
       </c>
       <c r="N39" t="n">
-        <v>1770.840746538214</v>
+        <v>2222.838593402824</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.708714606817</v>
+        <v>2428.782865387465</v>
       </c>
       <c r="P39" t="n">
-        <v>2512.664082998952</v>
+        <v>2574.738233779601</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S39" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T39" t="n">
         <v>2271.682062991626</v>
@@ -7324,31 +7324,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532424</v>
+        <v>80.04154000532422</v>
       </c>
       <c r="I40" t="n">
         <v>65.89576755016411</v>
       </c>
       <c r="J40" t="n">
-        <v>93.95187913703165</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K40" t="n">
-        <v>214.0083228080701</v>
+        <v>386.4993989927021</v>
       </c>
       <c r="L40" t="n">
-        <v>423.1656713230951</v>
+        <v>629.664511417905</v>
       </c>
       <c r="M40" t="n">
-        <v>654.0818924024752</v>
+        <v>860.5807324972851</v>
       </c>
       <c r="N40" t="n">
-        <v>884.9420582895725</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O40" t="n">
-        <v>1082.162491772441</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P40" t="n">
-        <v>1330.647381318266</v>
+        <v>1433.896801365671</v>
       </c>
       <c r="Q40" t="n">
         <v>1451.015232143525</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C41" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.334123783882</v>
       </c>
       <c r="D41" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674331</v>
       </c>
       <c r="E41" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732859</v>
       </c>
       <c r="F41" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808777</v>
       </c>
       <c r="G41" t="n">
         <v>274.9618382852429</v>
@@ -7409,19 +7409,19 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4925656641196</v>
+        <v>126.6658638889717</v>
       </c>
       <c r="K41" t="n">
-        <v>735.3560456871489</v>
+        <v>576.5293439120011</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.72809984796</v>
+        <v>1186.901398072813</v>
       </c>
       <c r="M41" t="n">
-        <v>2041.49116167893</v>
+        <v>1437.646061745878</v>
       </c>
       <c r="N41" t="n">
-        <v>2507.027479219464</v>
+        <v>2130.035299769345</v>
       </c>
       <c r="O41" t="n">
         <v>2738.651185557022</v>
@@ -7436,7 +7436,7 @@
         <v>3294.788377508205</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T41" t="n">
         <v>3144.574434711786</v>
@@ -7451,10 +7451,10 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X41" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794017</v>
       </c>
     </row>
     <row r="42">
@@ -7476,10 +7476,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F42" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G42" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H42" t="n">
         <v>104.9451021914994</v>
@@ -7488,34 +7488,34 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J42" t="n">
-        <v>202.9927364351604</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K42" t="n">
-        <v>563.9341358583547</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L42" t="n">
-        <v>1110.668786604939</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1450.171048031845</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N42" t="n">
-        <v>1699.583937590797</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O42" t="n">
-        <v>1905.528209575438</v>
+        <v>2184.894402374081</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.761718921111</v>
+        <v>2574.738233779601</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S42" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T42" t="n">
         <v>2271.682062991626</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571493</v>
+        <v>383.0329732571489</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264417</v>
+        <v>319.4425918264413</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113053</v>
+        <v>274.671753911305</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261113</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254003</v>
       </c>
       <c r="G43" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234439</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532422</v>
+        <v>80.04154000532417</v>
       </c>
       <c r="I43" t="n">
         <v>65.89576755016411</v>
       </c>
       <c r="J43" t="n">
-        <v>93.95187913703163</v>
+        <v>163.1935352742587</v>
       </c>
       <c r="K43" t="n">
-        <v>317.2577428554752</v>
+        <v>283.2499789452972</v>
       </c>
       <c r="L43" t="n">
-        <v>526.4150913705001</v>
+        <v>526.4150913704987</v>
       </c>
       <c r="M43" t="n">
-        <v>757.3313124498802</v>
+        <v>757.3313124498789</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369775</v>
+        <v>988.1914783369763</v>
       </c>
       <c r="O43" t="n">
-        <v>1185.411911819846</v>
+        <v>1185.411911819845</v>
       </c>
       <c r="P43" t="n">
-        <v>1330.647381318266</v>
+        <v>1330.647381318265</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143524</v>
       </c>
       <c r="R43" t="n">
-        <v>1433.388942351123</v>
+        <v>1433.388942351122</v>
       </c>
       <c r="S43" t="n">
         <v>1334.203628686804</v>
@@ -7600,19 +7600,19 @@
         <v>1214.633488428792</v>
       </c>
       <c r="U43" t="n">
-        <v>1030.836218885788</v>
+        <v>1030.836218885787</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321770999</v>
+        <v>881.4975321770993</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373385</v>
+        <v>697.426163637338</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365205</v>
+        <v>574.78241423652</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901897</v>
+        <v>459.3356365901893</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>891.9717755732845</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G44" t="n">
-        <v>274.9618382852428</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H44" t="n">
         <v>65.89576755016411</v>
@@ -7646,25 +7646,25 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J44" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641196</v>
       </c>
       <c r="K44" t="n">
-        <v>298.3112844509102</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L44" t="n">
-        <v>908.6833386117218</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M44" t="n">
-        <v>1604.446400442691</v>
+        <v>2041.49116167893</v>
       </c>
       <c r="N44" t="n">
-        <v>2296.835638466158</v>
+        <v>2733.880399702397</v>
       </c>
       <c r="O44" t="n">
-        <v>2528.459344803717</v>
+        <v>2965.504106039956</v>
       </c>
       <c r="P44" t="n">
-        <v>3010.224539589797</v>
+        <v>3128.688579736268</v>
       </c>
       <c r="Q44" t="n">
         <v>3294.788377508205</v>
@@ -7725,25 +7725,25 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J45" t="n">
-        <v>131.6030584950076</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K45" t="n">
-        <v>492.5444579182019</v>
+        <v>563.9341358583548</v>
       </c>
       <c r="L45" t="n">
-        <v>1039.279108664787</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.223866806373</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.636756365325</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.504724433928</v>
+        <v>2184.894402374081</v>
       </c>
       <c r="P45" t="n">
-        <v>2574.738233779602</v>
+        <v>2574.738233779601</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571493</v>
+        <v>383.0329732571495</v>
       </c>
       <c r="C46" t="n">
-        <v>319.4425918264417</v>
+        <v>319.4425918264419</v>
       </c>
       <c r="D46" t="n">
-        <v>274.6717539113053</v>
+        <v>274.6717539113054</v>
       </c>
       <c r="E46" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261116</v>
       </c>
       <c r="F46" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G46" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532422</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I46" t="n">
         <v>65.89576755016411</v>
       </c>
       <c r="J46" t="n">
-        <v>65.89576755016411</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K46" t="n">
-        <v>185.9522112212026</v>
+        <v>283.2499789452971</v>
       </c>
       <c r="L46" t="n">
-        <v>423.1656713230951</v>
+        <v>526.4150913705004</v>
       </c>
       <c r="M46" t="n">
-        <v>757.3313124498802</v>
+        <v>757.3313124498804</v>
       </c>
       <c r="N46" t="n">
-        <v>988.1914783369775</v>
+        <v>988.1914783369778</v>
       </c>
       <c r="O46" t="n">
         <v>1185.411911819846</v>
       </c>
       <c r="P46" t="n">
-        <v>1330.647381318266</v>
+        <v>1330.647381318267</v>
       </c>
       <c r="Q46" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R46" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S46" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T46" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U46" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321770999</v>
+        <v>881.4975321771001</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373385</v>
+        <v>697.4261636373387</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365205</v>
+        <v>574.7824142365207</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.3356365901897</v>
+        <v>459.3356365901899</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>190.0165263336637</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>214.4569336055211</v>
+        <v>214.456933605521</v>
       </c>
       <c r="P11" t="n">
-        <v>20.91991116159082</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>204.3040445827103</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>83.79242090198125</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>300.9906082978675</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>296.3101826843323</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>160.7252713562853</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>246.3519828418027</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>111.674245742745</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65105184634299</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>85.98216067866031</v>
       </c>
       <c r="M17" t="n">
-        <v>398.8885232487887</v>
+        <v>398.8885232487885</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038007</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>88.65227176947573</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9404,25 +9404,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>88.00582982487163</v>
       </c>
       <c r="O20" t="n">
-        <v>183.8683362038407</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>82.28084141952462</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>111.674245742745</v>
       </c>
       <c r="N21" t="n">
-        <v>400.2337496266804</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>262.4387430948582</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.8885232487887</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>15.3831456009964</v>
       </c>
       <c r="R23" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>111.6742457427458</v>
+        <v>111.6742457427434</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>413.5528271140485</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>195.7795547994365</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542716</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>223.5807681083126</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>40.7307574003447</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>253.0457480602507</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>111.6742457427461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>53.98024954227367</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>232.2493876123777</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.0101821000716</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>53.98024954227418</v>
+        <v>53.98024954227367</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>386.3996300294732</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>205.0961905278009</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>66.00720932843873</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>53.98024954227367</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>65.50064139930737</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>108.3294161083978</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>42.57335502542716</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>66.00720932843689</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.70116240469598</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>8.665603277984843</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>208.2025602878095</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>111.6742457427463</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>246.3519828418018</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>51.78267295915899</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>92.65434404730729</v>
       </c>
       <c r="R44" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542713</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>53.98024954227471</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>246.3519828418022</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879133</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375886</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>208.8665096785724</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.86878149913305</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>173.7017502545637</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V11" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>135.101469216974</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>308.8143766729594</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.93937715401948</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.93937715402029</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>217.2591318677676</v>
+        <v>195.6123739047497</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>26.86878149913302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>60.93937715402042</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>60.93937715402071</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.086645835572554e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-3.268496584496461e-13</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="C2" t="n">
         <v>245782.9016151115</v>
@@ -26320,13 +26320,13 @@
         <v>245782.9016151115</v>
       </c>
       <c r="E2" t="n">
-        <v>201471.1519353418</v>
+        <v>201471.1519353419</v>
       </c>
       <c r="F2" t="n">
         <v>220352.9787636675</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="H2" t="n">
         <v>246312.5309592851</v>
@@ -26338,19 +26338,19 @@
         <v>246312.5309592849</v>
       </c>
       <c r="K2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="L2" t="n">
         <v>246312.5309592849</v>
       </c>
-      <c r="L2" t="n">
-        <v>246312.5309592851</v>
-      </c>
       <c r="M2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592847</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592848</v>
-      </c>
       <c r="O2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592847</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746256.1644166387</v>
+        <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.4369889889</v>
+        <v>58378.43698898885</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027683</v>
+        <v>59877.36107027688</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487752</v>
+        <v>73573.91951487753</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.36107027684</v>
+        <v>59877.36107027687</v>
       </c>
       <c r="M3" t="n">
-        <v>107779.8354573342</v>
+        <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.82011545928</v>
+        <v>49902.82011545921</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248895</v>
+        <v>4106.36543824886</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>132767.5489705625</v>
+        <v>132767.5489705623</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879658</v>
+        <v>153149.3497879656</v>
       </c>
       <c r="G4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="H4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="I4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717044</v>
       </c>
       <c r="J4" t="n">
-        <v>189330.9659432835</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="K4" t="n">
-        <v>189330.9659432835</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="L4" t="n">
-        <v>189330.9659432835</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="M4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
       <c r="N4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
       <c r="O4" t="n">
         <v>193885.5459623941</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48708.52866658146</v>
+        <v>48708.52866658147</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.26649466871</v>
+        <v>61096.2664946687</v>
       </c>
       <c r="G5" t="n">
         <v>67388.55382944009</v>
@@ -26488,25 +26488,25 @@
         <v>67388.55382944009</v>
       </c>
       <c r="I5" t="n">
-        <v>67388.55382944009</v>
+        <v>67388.55382944006</v>
       </c>
       <c r="J5" t="n">
         <v>77453.80406787343</v>
       </c>
       <c r="K5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="M5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="N5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="P5" t="n">
         <v>73784.19097745874</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218743.2078275644</v>
+        <v>-218747.6214054326</v>
       </c>
       <c r="C6" t="n">
-        <v>-218743.2078275644</v>
+        <v>-218747.6214054324</v>
       </c>
       <c r="D6" t="n">
-        <v>-218743.2078275644</v>
+        <v>-218747.6214054324</v>
       </c>
       <c r="E6" t="n">
-        <v>-726261.0901184409</v>
+        <v>-726634.7682769736</v>
       </c>
       <c r="F6" t="n">
-        <v>-52271.07450795591</v>
+        <v>-52487.40410958584</v>
       </c>
       <c r="G6" t="n">
-        <v>-83302.97231213644</v>
+        <v>-83302.97231213638</v>
       </c>
       <c r="H6" t="n">
-        <v>-23425.61124185959</v>
+        <v>-23425.6112418595</v>
       </c>
       <c r="I6" t="n">
-        <v>-23425.61124185953</v>
+        <v>-23425.6112418593</v>
       </c>
       <c r="J6" t="n">
-        <v>-94046.15856674954</v>
+        <v>-94046.15856674945</v>
       </c>
       <c r="K6" t="n">
-        <v>-20472.23905187203</v>
+        <v>-20472.23905187205</v>
       </c>
       <c r="L6" t="n">
-        <v>-80349.60012214865</v>
+        <v>-80349.60012214878</v>
       </c>
       <c r="M6" t="n">
         <v>-129137.0414379023</v>
       </c>
       <c r="N6" t="n">
-        <v>-71260.0260960273</v>
+        <v>-71260.02609602729</v>
       </c>
       <c r="O6" t="n">
-        <v>-25463.57141881694</v>
+        <v>-25463.57141881692</v>
       </c>
       <c r="P6" t="n">
-        <v>-21357.20598056809</v>
+        <v>-21357.20598056812</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209404</v>
@@ -26710,10 +26710,10 @@
         <v>79.97965813565715</v>
       </c>
       <c r="K2" t="n">
+        <v>79.97965813565716</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.97965813565715</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.97965813565716</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26722,7 +26722,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="O2" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="P2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="K3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
     </row>
     <row r="4">
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="G4" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="I4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023892</v>
       </c>
       <c r="J4" t="n">
+        <v>917.6700587654639</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.6700587654641</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.6700587654642</v>
-      </c>
       <c r="L4" t="n">
-        <v>917.6700587654642</v>
+        <v>917.6700587654641</v>
       </c>
       <c r="M4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="N4" t="n">
         <v>823.6970943770514</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784604</v>
+        <v>74.8467013378461</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811019</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784606</v>
+        <v>74.84670133784608</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657013</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811119</v>
+        <v>5.132956797811076</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>203.7456879619612</v>
+        <v>203.745687961961</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630743</v>
+        <v>265.5040974630747</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.4473089520157</v>
+        <v>354.447308952016</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619612</v>
+        <v>203.7456879619609</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784604</v>
+        <v>74.8467013378461</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811019</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619612</v>
+        <v>203.745687961961</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309432</v>
+        <v>55.22536670000825</v>
       </c>
       <c r="C12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="D12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="H12" t="n">
-        <v>16.46064601183581</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="T12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="U12" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309432</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309432</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.42356198309432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309423</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309432</v>
+        <v>77.42356198309426</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T17" t="n">
         <v>152.2702633209404</v>
@@ -28737,13 +28737,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2427611571659</v>
+        <v>124.1331187616004</v>
       </c>
       <c r="I19" t="n">
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023546006</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>149.6767438460638</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T19" t="n">
         <v>152.2702633209404</v>
@@ -28782,7 +28782,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X19" t="n">
         <v>152.2702633209404</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T20" t="n">
         <v>152.2702633209404</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,16 +29007,16 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2702633209404</v>
+        <v>3.242781199494118</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.242781199494601</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>152.2702633209404</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T23" t="n">
         <v>152.2702633209404</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29208,16 +29208,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>89.98404430432177</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29253,13 +29253,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="V25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>152.2702633209404</v>
+        <v>124.9851515761998</v>
       </c>
       <c r="Y25" t="n">
         <v>152.2702633209404</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565725</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>104.2923434822273</v>
       </c>
       <c r="K37" t="n">
+        <v>34.35127667694755</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="L37" t="n">
-        <v>34.35127667694749</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30402,13 +30402,13 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>34.35127667694756</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>34.35127667694732</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>104.2923434822273</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="C41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="D41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="E41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="F41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="G41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="H41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="I41" t="n">
         <v>104.2923434822273</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="T41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="U41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="V41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="W41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="X41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="C43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="D43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="E43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="G43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="I43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="J43" t="n">
-        <v>34.35127667694753</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="K43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>34.35127667694582</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="R43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="S43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="T43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="U43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="V43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="W43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="X43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
     </row>
     <row r="44">
@@ -30876,16 +30876,16 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>6.011770023546006</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>28.33950665340149</v>
+        <v>34.35127667694775</v>
       </c>
       <c r="M46" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I11" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J11" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M11" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q11" t="n">
         <v>297.4289193341494</v>
@@ -31786,13 +31786,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T11" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H12" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I12" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J12" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L12" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O12" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P12" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S12" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H13" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L13" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M13" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N13" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P13" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R13" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S13" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H14" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I14" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J14" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K14" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L14" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M14" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q14" t="n">
         <v>297.4289193341494</v>
@@ -32023,13 +32023,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T14" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H15" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I15" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J15" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K15" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L15" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N15" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O15" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P15" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S15" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H16" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L16" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M16" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N16" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O16" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P16" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R16" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S16" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H17" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I17" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J17" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K17" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L17" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M17" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N17" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O17" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q17" t="n">
         <v>297.4289193341494</v>
@@ -32260,13 +32260,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T17" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H18" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I18" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K18" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L18" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N18" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O18" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P18" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S18" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H19" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L19" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M19" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N19" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O19" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P19" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R19" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S19" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H20" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I20" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J20" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K20" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M20" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N20" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O20" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q20" t="n">
         <v>297.4289193341494</v>
@@ -32497,13 +32497,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T20" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H21" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I21" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K21" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L21" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N21" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O21" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P21" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S21" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H22" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L22" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M22" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N22" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O22" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P22" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R22" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S22" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I23" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J23" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K23" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L23" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M23" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N23" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O23" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q23" t="n">
         <v>297.4289193341494</v>
@@ -32734,13 +32734,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T23" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H24" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I24" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J24" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L24" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N24" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O24" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P24" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S24" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H25" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L25" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M25" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N25" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O25" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P25" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R25" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S25" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I26" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J26" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L26" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q26" t="n">
         <v>297.4289193341494</v>
@@ -32971,13 +32971,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H27" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L27" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N27" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O27" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H28" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L28" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M28" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N28" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O28" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P28" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R28" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H29" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I29" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J29" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K29" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L29" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M29" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N29" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O29" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q29" t="n">
         <v>297.4289193341494</v>
@@ -33208,13 +33208,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T29" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H30" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I30" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J30" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K30" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L30" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M30" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N30" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O30" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P30" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q30" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S30" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H31" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I31" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L31" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M31" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N31" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O31" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P31" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R31" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S31" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H32" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I32" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J32" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K32" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L32" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M32" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O32" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q32" t="n">
         <v>297.4289193341494</v>
@@ -33445,13 +33445,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T32" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H33" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I33" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J33" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K33" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L33" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N33" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O33" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P33" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S33" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H34" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L34" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M34" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N34" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O34" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P34" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R34" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S34" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H35" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I35" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K35" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L35" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M35" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N35" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O35" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q35" t="n">
         <v>297.4289193341494</v>
@@ -33682,13 +33682,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T35" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H36" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I36" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J36" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K36" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L36" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N36" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O36" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P36" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S36" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H37" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L37" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M37" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N37" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O37" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P37" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R37" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S37" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H38" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I38" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K38" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L38" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M38" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N38" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O38" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q38" t="n">
         <v>297.4289193341494</v>
@@ -33919,13 +33919,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T38" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H39" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I39" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K39" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L39" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N39" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O39" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P39" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S39" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H40" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L40" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M40" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N40" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O40" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P40" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R40" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S40" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H41" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I41" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J41" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K41" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L41" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M41" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N41" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q41" t="n">
         <v>297.4289193341494</v>
@@ -34156,13 +34156,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T41" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H42" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I42" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K42" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L42" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N42" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O42" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P42" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S42" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H43" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L43" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M43" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N43" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O43" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P43" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R43" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S43" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,22 +34369,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L44" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M44" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q44" t="n">
         <v>297.4289193341494</v>
@@ -34393,13 +34393,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T44" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H45" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I45" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J45" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K45" t="n">
         <v>237.9634741064212</v>
@@ -34454,7 +34454,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N45" t="n">
         <v>383.2739237590426</v>
@@ -34463,22 +34463,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P45" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q45" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S45" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H46" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K46" t="n">
         <v>143.5386268471339</v>
@@ -34545,16 +34545,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R46" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S46" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U46" t="n">
         <v>0.06738902668879533</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K11" t="n">
-        <v>130.2621430076528</v>
+        <v>320.2786693413166</v>
       </c>
       <c r="L11" t="n">
-        <v>198.8762138948138</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>253.277438053601</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N11" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="P11" t="n">
-        <v>185.7527128750377</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.1232294596999</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K12" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L12" t="n">
-        <v>181.416877672889</v>
+        <v>385.7209222555994</v>
       </c>
       <c r="M12" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O12" t="n">
-        <v>291.8169380581841</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P12" t="n">
-        <v>448.4202733404285</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>258.2066837721429</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.41179195954831</v>
+        <v>71.41179195954825</v>
       </c>
       <c r="K13" t="n">
         <v>198.6926970043453</v>
       </c>
       <c r="L13" t="n">
-        <v>288.6936109881701</v>
+        <v>288.69361098817</v>
       </c>
       <c r="M13" t="n">
         <v>310.6722701440843</v>
@@ -35583,10 +35583,10 @@
         <v>276.6361210566988</v>
       </c>
       <c r="P13" t="n">
-        <v>224.1260564259431</v>
+        <v>224.126056425943</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314877</v>
+        <v>94.71490620314873</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K14" t="n">
-        <v>454.4075555788175</v>
+        <v>426.5723256919852</v>
       </c>
       <c r="L14" t="n">
-        <v>198.8762138948138</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M14" t="n">
-        <v>253.277438053601</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N14" t="n">
-        <v>422.7614156548743</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O14" t="n">
-        <v>233.9633397349075</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P14" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q14" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R14" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L15" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>477.6093142979507</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N15" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O15" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989479</v>
       </c>
       <c r="P15" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954831</v>
+        <v>71.41179195954828</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
@@ -35823,7 +35823,7 @@
         <v>224.1260564259431</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314877</v>
+        <v>94.71490620314876</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>147.9131948539957</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L17" t="n">
-        <v>198.8762138948138</v>
+        <v>284.8583745734742</v>
       </c>
       <c r="M17" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023897</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O17" t="n">
-        <v>233.9633397349075</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P17" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q17" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K18" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L18" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N18" t="n">
-        <v>340.584483445185</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O18" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P18" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q18" t="n">
         <v>258.2066837721429</v>
@@ -36045,7 +36045,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M19" t="n">
         <v>233.24870816099</v>
@@ -36054,13 +36054,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O19" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P19" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005446</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K20" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L20" t="n">
-        <v>198.8762138948138</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M20" t="n">
-        <v>253.277438053601</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N20" t="n">
-        <v>262.036144298589</v>
+        <v>350.0419741234608</v>
       </c>
       <c r="O20" t="n">
-        <v>417.8316759387482</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P20" t="n">
-        <v>486.6315098849295</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q20" t="n">
         <v>287.4382201196046</v>
@@ -36200,22 +36200,22 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L21" t="n">
-        <v>263.6977190924136</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>231.257331456148</v>
+        <v>342.9315771988931</v>
       </c>
       <c r="N21" t="n">
-        <v>652.1659613023897</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O21" t="n">
-        <v>208.0245171562028</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P21" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q21" t="n">
         <v>258.2066837721429</v>
@@ -36282,7 +36282,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M22" t="n">
         <v>233.24870816099</v>
@@ -36291,13 +36291,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O22" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P22" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005446</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K23" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L23" t="n">
-        <v>461.314956989672</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M23" t="n">
-        <v>652.1659613023897</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N23" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O23" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P23" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.1232294596999</v>
+        <v>90.50637506069636</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K24" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L24" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N24" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O24" t="n">
-        <v>319.6987628989486</v>
+        <v>319.6987628989463</v>
       </c>
       <c r="P24" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q24" t="n">
         <v>258.2066837721429</v>
@@ -36519,7 +36519,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M25" t="n">
         <v>233.24870816099</v>
@@ -36528,13 +36528,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O25" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P25" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005446</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464335</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105732</v>
+        <v>675.5889714126376</v>
       </c>
       <c r="O26" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P26" t="n">
-        <v>360.6123565128834</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q26" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
-        <v>404.9976457812015</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>696.9623952061479</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N27" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O27" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P27" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q27" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211114</v>
+        <v>73.96788811211117</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
@@ -36759,19 +36759,19 @@
         <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
-        <v>313.2283662966471</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1717448903009</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O28" t="n">
-        <v>279.1922172092616</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P28" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.2710023557116</v>
+        <v>97.27100235571164</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.71833241778029</v>
+        <v>93.44908981812507</v>
       </c>
       <c r="K29" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L29" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M29" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O29" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
-        <v>417.8785497736976</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.4817867525215</v>
+        <v>12.39075141211271</v>
       </c>
       <c r="K30" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L30" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>342.931577198894</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N30" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O30" t="n">
-        <v>208.0245171562028</v>
+        <v>601.8868364329325</v>
       </c>
       <c r="P30" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.2066837721429</v>
+        <v>102.1096455785675</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211114</v>
+        <v>73.96788811211118</v>
       </c>
       <c r="K31" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
-        <v>291.2497071407329</v>
+        <v>291.249707140733</v>
       </c>
       <c r="M31" t="n">
-        <v>313.2283662966471</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903009</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O31" t="n">
-        <v>279.1922172092616</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.2710023557116</v>
+        <v>97.27100235571166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>362.5115306200304</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452643</v>
+        <v>615.8863959948856</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7909715464335</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O32" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q32" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.39075141211265</v>
+        <v>12.39075141211271</v>
       </c>
       <c r="K33" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L33" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N33" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O33" t="n">
-        <v>601.8868364329323</v>
+        <v>601.8868364329325</v>
       </c>
       <c r="P33" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.109645578568</v>
+        <v>102.1096455785675</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211117</v>
       </c>
       <c r="K34" t="n">
         <v>201.2487931569082</v>
@@ -37233,19 +37233,19 @@
         <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966471</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903009</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O34" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P34" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571162</v>
+        <v>97.27100235571164</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7909715464335</v>
+        <v>639.6770680830743</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3830687105732</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O35" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P35" t="n">
-        <v>369.9289922412478</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>138.4817867525215</v>
+        <v>12.39075141211271</v>
       </c>
       <c r="K36" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L36" t="n">
-        <v>247.4240870013277</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M36" t="n">
-        <v>696.9623952061479</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O36" t="n">
-        <v>208.0245171562028</v>
+        <v>601.8868364329325</v>
       </c>
       <c r="P36" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.1293960362938</v>
+        <v>102.1096455785675</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>98.2805734586813</v>
       </c>
       <c r="K37" t="n">
-        <v>225.5614785034783</v>
+        <v>155.6204116981986</v>
       </c>
       <c r="L37" t="n">
-        <v>245.6213256820232</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N37" t="n">
         <v>233.1920867546438</v>
       </c>
       <c r="O37" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.29134422005446</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.71833241778029</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K38" t="n">
-        <v>130.2621430076528</v>
+        <v>195.7627844069602</v>
       </c>
       <c r="L38" t="n">
-        <v>616.5374284452643</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M38" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N38" t="n">
-        <v>370.3655604069868</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O38" t="n">
-        <v>614.7635209976528</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P38" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q38" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K39" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
-        <v>181.416877672889</v>
+        <v>247.424087001326</v>
       </c>
       <c r="M39" t="n">
-        <v>696.9623952061479</v>
+        <v>696.962395206148</v>
       </c>
       <c r="N39" t="n">
         <v>731.2745860192629</v>
       </c>
       <c r="O39" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P39" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.8305584409898</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28.33950665340156</v>
+        <v>98.28057345868133</v>
       </c>
       <c r="K40" t="n">
-        <v>121.269135021251</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L40" t="n">
-        <v>211.2700490050757</v>
+        <v>245.6213256820231</v>
       </c>
       <c r="M40" t="n">
         <v>233.24870816099</v>
@@ -37713,13 +37713,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O40" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P40" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q40" t="n">
-        <v>121.5836877022818</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>221.8149475898541</v>
+        <v>61.38393569576522</v>
       </c>
       <c r="K41" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L41" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M41" t="n">
-        <v>702.7909715464335</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N41" t="n">
-        <v>470.2387045863986</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O41" t="n">
-        <v>233.9633397349075</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.1232294596999</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L42" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>342.9315771988943</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N42" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O42" t="n">
-        <v>208.0245171562028</v>
+        <v>601.8868364329325</v>
       </c>
       <c r="P42" t="n">
-        <v>465.8924336824982</v>
+        <v>393.7816478843629</v>
       </c>
       <c r="Q42" t="n">
-        <v>258.2066837721429</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.33950665340153</v>
+        <v>98.28057345868139</v>
       </c>
       <c r="K43" t="n">
-        <v>225.5614785034783</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2700490050757</v>
+        <v>245.6213256820216</v>
       </c>
       <c r="M43" t="n">
         <v>233.24870816099</v>
@@ -37950,13 +37950,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O43" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P43" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.5836877022818</v>
+        <v>121.5836877022819</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K44" t="n">
-        <v>182.0448159668117</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O44" t="n">
-        <v>233.9633397349075</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P44" t="n">
-        <v>486.6315098849295</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q44" t="n">
-        <v>287.4382201196046</v>
+        <v>167.7775735070072</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>66.37100095438736</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
         <v>364.5872721446408</v>
@@ -38102,7 +38102,7 @@
         <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N45" t="n">
         <v>251.9322116757093</v>
@@ -38111,10 +38111,10 @@
         <v>601.8868364329323</v>
       </c>
       <c r="P45" t="n">
-        <v>465.8924336824982</v>
+        <v>393.7816478843633</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.1293960362938</v>
+        <v>48.12939603629383</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>98.2805734586813</v>
       </c>
       <c r="K46" t="n">
         <v>121.269135021251</v>
       </c>
       <c r="L46" t="n">
-        <v>239.6095556584772</v>
+        <v>245.6213256820235</v>
       </c>
       <c r="M46" t="n">
-        <v>337.5410516432173</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N46" t="n">
         <v>233.1920867546438</v>
@@ -38190,7 +38190,7 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q46" t="n">
         <v>121.5836877022818</v>
